--- a/项目文档/测试用例/胶水涉赌自动化过滤模型测试样例-lxf.xlsx
+++ b/项目文档/测试用例/胶水涉赌自动化过滤模型测试样例-lxf.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\业务\10citta\citta测试用例\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\C2\项目文档\测试用例\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC13435D-F1E5-484A-97F8-B0CA328B6403}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEFBFC1F-7937-450E-9024-03A9CB6A6F56}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="78">
   <si>
     <t>测试功能点</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -347,6 +347,38 @@
     <t>1、脚本输入文件路径设置为非加密tgz文件所在路径
 2、右击解密结果算子
 3、选择”运行到此“</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>涉赌脚本模型-输入非涉赌压缩包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非涉赌数据包干扰测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入非涉赌数据包并运行算子，算子第一步解密正常报错，随后清空数据包所在文件夹输入正确的涉赌数据包，运行算子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、输入涉赌数据包和涉枪数据包（涉枪数据包地市编码大于等于涉赌数据包地市编码），运行算子，第一步正常报错；2、删除tgz压缩包文件夹里的所有数据，输入正确的涉赌原始数据包，运行算子，观察结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>算子正常运行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘原</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘晓凤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待优化：第一步解密算子运行错误以后，对应文件夹里仍旧会出现解密文件夹，若没删除解密文件夹，在随后直接运行正确的涉赌数据包时第二步出错</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -700,15 +732,15 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.125" customWidth="1"/>
+    <col min="1" max="1" width="15.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -716,7 +748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -724,7 +756,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -732,7 +764,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -740,7 +772,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -748,7 +780,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -767,22 +799,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08D8F309-E5F5-4DB6-AABF-85B7A01D116B}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.75" customWidth="1"/>
-    <col min="2" max="2" width="18.75" customWidth="1"/>
-    <col min="3" max="3" width="46.375" customWidth="1"/>
-    <col min="4" max="4" width="33.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="24.25" customWidth="1"/>
-    <col min="6" max="6" width="19.75" customWidth="1"/>
-    <col min="7" max="7" width="14.5" customWidth="1"/>
+    <col min="1" max="1" width="37.77734375" customWidth="1"/>
+    <col min="2" max="2" width="18.77734375" customWidth="1"/>
+    <col min="3" max="3" width="46.33203125" customWidth="1"/>
+    <col min="4" max="4" width="33.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.21875" customWidth="1"/>
+    <col min="6" max="6" width="19.77734375" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -814,7 +846,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="57" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -840,7 +872,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="57" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -866,7 +898,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -892,7 +924,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -918,7 +950,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -944,7 +976,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>36</v>
       </c>
@@ -970,7 +1002,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -996,7 +1028,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -1022,7 +1054,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -1048,7 +1080,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -1074,7 +1106,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -1100,7 +1132,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -1126,7 +1158,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -1152,7 +1184,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>55</v>
       </c>
@@ -1178,7 +1210,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>55</v>
       </c>
@@ -1204,8 +1236,31 @@
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E17" s="1"/>
+    <row r="17" spans="1:9" ht="124.2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>76</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/项目文档/测试用例/胶水涉赌自动化过滤模型测试样例-lxf.xlsx
+++ b/项目文档/测试用例/胶水涉赌自动化过滤模型测试样例-lxf.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\C2\项目文档\测试用例\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\刘\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEFBFC1F-7937-450E-9024-03A9CB6A6F56}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BCC2BD8-83C7-40EA-A5CD-9B6C5FAFB22E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="852" yWindow="1920" windowWidth="18420" windowHeight="10356" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -358,18 +358,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>输入非涉赌数据包并运行算子，算子第一步解密正常报错，随后清空数据包所在文件夹输入正确的涉赌数据包，运行算子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、输入涉赌数据包和涉枪数据包（涉枪数据包地市编码大于等于涉赌数据包地市编码），运行算子，第一步正常报错；2、删除tgz压缩包文件夹里的所有数据，输入正确的涉赌原始数据包，运行算子，观察结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>算子正常运行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>刘原</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -378,7 +366,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>待优化：第一步解密算子运行错误以后，对应文件夹里仍旧会出现解密文件夹，若没删除解密文件夹，在随后直接运行正确的涉赌数据包时第二步出错</t>
+    <t>输入非涉赌数据包并运行算子，观察程序反应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、输入涉枪数据包，运行算子；2、删除tgz压缩包文件夹里的所有数据，输入正确的涉赌原始数据包，运行算子，观察结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PASS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序不崩溃，报告异常，且不干扰接下来涉赌数据包的取证</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -799,8 +799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08D8F309-E5F5-4DB6-AABF-85B7A01D116B}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1236,7 +1236,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="124.2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="69" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>70</v>
       </c>
@@ -1244,22 +1244,22 @@
         <v>71</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H17" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E17" s="1" t="s">
+      <c r="I17" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
   </sheetData>
